--- a/public/Template Import Data Prestasi.xlsx
+++ b/public/Template Import Data Prestasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zikri\Desktop\Project\spk-rezi\spk-rezi\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8651DBC1-4806-4FB2-A715-17AFF49212F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDA5E0B-6D38-42D6-B09B-72672B1275E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="2055" windowWidth="14325" windowHeight="13245" xr2:uid="{ADF3FD9C-17E6-40BC-95DF-59BCD489950A}"/>
   </bookViews>
@@ -94,7 +94,7 @@
     <t>Ranking</t>
   </si>
   <si>
-    <t>2022/2300</t>
+    <t>2022/2023</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
